--- a/Complement-MM-inti-Menu/ig/StructureDefinition-FrMedicationHistoryMedicationStatement.xlsx
+++ b/Complement-MM-inti-Menu/ig/StructureDefinition-FrMedicationHistoryMedicationStatement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-02T08:10:46+00:00</t>
+    <t>2024-08-13T13:54:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/Complement-MM-inti-Menu/ig/StructureDefinition-FrMedicationHistoryMedicationStatement.xlsx
+++ b/Complement-MM-inti-Menu/ig/StructureDefinition-FrMedicationHistoryMedicationStatement.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T13:54:51+00:00</t>
+    <t>2024-08-13T14:23:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
